--- a/stock_predictor_ai/data/cleaned/NXPI.xlsx
+++ b/stock_predictor_ai/data/cleaned/NXPI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3748"/>
+  <dimension ref="A1:F3749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75409,6 +75409,26 @@
         <v>209190</v>
       </c>
     </row>
+    <row r="3749">
+      <c r="A3749" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3749" t="n">
+        <v>233</v>
+      </c>
+      <c r="C3749" t="n">
+        <v>234.5299987792969</v>
+      </c>
+      <c r="D3749" t="n">
+        <v>231.2550048828125</v>
+      </c>
+      <c r="E3749" t="n">
+        <v>231.7799987792969</v>
+      </c>
+      <c r="F3749" t="n">
+        <v>94622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/NXPI.xlsx
+++ b/stock_predictor_ai/data/cleaned/NXPI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3749"/>
+  <dimension ref="A1:F3750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75429,6 +75429,26 @@
         <v>94622</v>
       </c>
     </row>
+    <row r="3750">
+      <c r="A3750" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3750" t="n">
+        <v>221.0599975585938</v>
+      </c>
+      <c r="C3750" t="n">
+        <v>227</v>
+      </c>
+      <c r="D3750" t="n">
+        <v>220.8999938964844</v>
+      </c>
+      <c r="E3750" t="n">
+        <v>226.8899993896484</v>
+      </c>
+      <c r="F3750" t="n">
+        <v>2397100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/NXPI.xlsx
+++ b/stock_predictor_ai/data/cleaned/NXPI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3750"/>
+  <dimension ref="A1:F3751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75449,6 +75449,26 @@
         <v>2397100</v>
       </c>
     </row>
+    <row r="3751">
+      <c r="A3751" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3751" t="n">
+        <v>230.2799987792969</v>
+      </c>
+      <c r="C3751" t="n">
+        <v>230.9499969482422</v>
+      </c>
+      <c r="D3751" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="E3751" t="n">
+        <v>227.2700042724609</v>
+      </c>
+      <c r="F3751" t="n">
+        <v>847196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/NXPI.xlsx
+++ b/stock_predictor_ai/data/cleaned/NXPI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3751"/>
+  <dimension ref="A1:F3752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75469,6 +75469,26 @@
         <v>847196</v>
       </c>
     </row>
+    <row r="3752">
+      <c r="A3752" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3752" t="n">
+        <v>229.1349945068359</v>
+      </c>
+      <c r="C3752" t="n">
+        <v>229.7299957275391</v>
+      </c>
+      <c r="D3752" t="n">
+        <v>226.1600036621094</v>
+      </c>
+      <c r="E3752" t="n">
+        <v>228.1300048828125</v>
+      </c>
+      <c r="F3752" t="n">
+        <v>833961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/NXPI.xlsx
+++ b/stock_predictor_ai/data/cleaned/NXPI.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3752"/>
+  <dimension ref="A1:F3747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75389,106 +75391,6 @@
         <v>2060400</v>
       </c>
     </row>
-    <row r="3748">
-      <c r="A3748" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3748" t="n">
-        <v>232.0099945068359</v>
-      </c>
-      <c r="C3748" t="n">
-        <v>232.5500030517578</v>
-      </c>
-      <c r="D3748" t="n">
-        <v>230.2700042724609</v>
-      </c>
-      <c r="E3748" t="n">
-        <v>231.1499938964844</v>
-      </c>
-      <c r="F3748" t="n">
-        <v>209190</v>
-      </c>
-    </row>
-    <row r="3749">
-      <c r="A3749" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3749" t="n">
-        <v>233</v>
-      </c>
-      <c r="C3749" t="n">
-        <v>234.5299987792969</v>
-      </c>
-      <c r="D3749" t="n">
-        <v>231.2550048828125</v>
-      </c>
-      <c r="E3749" t="n">
-        <v>231.7799987792969</v>
-      </c>
-      <c r="F3749" t="n">
-        <v>94622</v>
-      </c>
-    </row>
-    <row r="3750">
-      <c r="A3750" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3750" t="n">
-        <v>221.0599975585938</v>
-      </c>
-      <c r="C3750" t="n">
-        <v>227</v>
-      </c>
-      <c r="D3750" t="n">
-        <v>220.8999938964844</v>
-      </c>
-      <c r="E3750" t="n">
-        <v>226.8899993896484</v>
-      </c>
-      <c r="F3750" t="n">
-        <v>2397100</v>
-      </c>
-    </row>
-    <row r="3751">
-      <c r="A3751" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3751" t="n">
-        <v>230.2799987792969</v>
-      </c>
-      <c r="C3751" t="n">
-        <v>230.9499969482422</v>
-      </c>
-      <c r="D3751" t="n">
-        <v>227.25</v>
-      </c>
-      <c r="E3751" t="n">
-        <v>227.2700042724609</v>
-      </c>
-      <c r="F3751" t="n">
-        <v>847196</v>
-      </c>
-    </row>
-    <row r="3752">
-      <c r="A3752" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3752" t="n">
-        <v>229.1349945068359</v>
-      </c>
-      <c r="C3752" t="n">
-        <v>229.7299957275391</v>
-      </c>
-      <c r="D3752" t="n">
-        <v>226.1600036621094</v>
-      </c>
-      <c r="E3752" t="n">
-        <v>228.1300048828125</v>
-      </c>
-      <c r="F3752" t="n">
-        <v>833961</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
